--- a/02_Donnees/Sources/objectifs_mensuels.xlsx
+++ b/02_Donnees/Sources/objectifs_mensuels.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2024" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +445,21 @@
           <t>Objectif_CA</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Budget_Marketing</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>530498</v>
+        <v>815223</v>
+      </c>
+      <c r="C2" t="n">
+        <v>93706</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +467,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>634988</v>
+        <v>1180109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>85888</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +478,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>649797</v>
+        <v>871671</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99782</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +489,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>716077</v>
+        <v>1127732</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99436</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +500,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>728751</v>
+        <v>960577</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87882</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +511,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>670244</v>
+        <v>981401</v>
+      </c>
+      <c r="C7" t="n">
+        <v>68172</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +522,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>810836</v>
+        <v>1459669</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80679</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +533,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>620912</v>
+        <v>1198587</v>
+      </c>
+      <c r="C9" t="n">
+        <v>69821</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +544,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>512118</v>
+        <v>976320</v>
+      </c>
+      <c r="C10" t="n">
+        <v>84163</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +555,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>572941</v>
+        <v>800778</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50359</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +566,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>888183</v>
+        <v>824060</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69217</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +577,178 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>794566</v>
+        <v>1307117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>78560</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Mois</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Objectif_CA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Budget_Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>937506</v>
+      </c>
+      <c r="C2" t="n">
+        <v>93706</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1357125</v>
+      </c>
+      <c r="C3" t="n">
+        <v>85888</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1002421</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1296891</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99436</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1104663</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87882</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1128611</v>
+      </c>
+      <c r="C7" t="n">
+        <v>68172</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1678619</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80679</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1378375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>69821</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1122768</v>
+      </c>
+      <c r="C10" t="n">
+        <v>84163</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>920894</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50359</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>947668</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69217</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1503184</v>
+      </c>
+      <c r="C13" t="n">
+        <v>78560</v>
       </c>
     </row>
   </sheetData>
